--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -47,7 +47,7 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>bank bni</t>
+    <t>Transfer Bank</t>
   </si>
   <si>
     <t>bank bri</t>
@@ -396,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
         <v>2023</v>
       </c>
       <c r="C2">
-        <v>1111111111</v>
+        <v>1234567890</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -453,7 +453,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1111111111</v>
+        <v>1234567890</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -466,6 +466,38 @@
       </c>
       <c r="J2">
         <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <v>1234567890</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1234567890</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>20000000</v>
+      </c>
+      <c r="J3">
+        <v>20000000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -47,16 +47,13 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>Transfer Bank</t>
-  </si>
-  <si>
-    <t>bank bri</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>idr</t>
+    <t>yyyyyy</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>IDR</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +441,7 @@
         <v>2023</v>
       </c>
       <c r="C2">
-        <v>1234567890</v>
+        <v>100000</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -453,51 +450,19 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1234567890</v>
+        <v>123456</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="J2">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-      <c r="C3">
-        <v>1234567890</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1234567890</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>20000000</v>
-      </c>
-      <c r="J3">
-        <v>20000000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -47,13 +47,19 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>yyyyyy</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>IDR</t>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>Transfer Bank</t>
+  </si>
+  <si>
+    <t>bank bri</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>idr</t>
   </si>
 </sst>
 </file>
@@ -437,32 +443,32 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2023</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>100000</v>
+        <v>1234567890</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>123456</v>
+        <v>1234567890</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <v>1000000</v>
+        <v>20000000</v>
       </c>
       <c r="J2">
-        <v>100000</v>
+        <v>20000000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -47,19 +47,7 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
-    <t>Transfer Bank</t>
-  </si>
-  <si>
-    <t>bank bri</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>idr</t>
+    <t>2023-06-01</t>
   </si>
 </sst>
 </file>
@@ -399,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,28 +435,60 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1234567890</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1234567890</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>20000000</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>20000000</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -47,19 +47,13 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
-    <t>Transfer Bank</t>
-  </si>
-  <si>
-    <t>bank bri</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>idr</t>
+    <t>yyyyyy</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>IDR</t>
   </si>
 </sst>
 </file>
@@ -443,32 +437,32 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1234567890</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>1234567890</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2">
-        <v>20000000</v>
+        <v>1000000</v>
       </c>
       <c r="J2">
-        <v>20000000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
   </si>
   <si>
     <t>Sumber Dana</t>
@@ -393,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,40 +426,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2023</v>
-      </c>
-      <c r="C2">
-        <v>100000</v>
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>123456</v>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="H2">
+        <v>100000</v>
       </c>
       <c r="I2">
-        <v>1000000</v>
-      </c>
-      <c r="J2">
-        <v>100000</v>
+        <v>1234567</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Transaksi.xlsx
+++ b/excel/Data Transaksi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>Reference Number</t>
-  </si>
-  <si>
-    <t>yyyyyy</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>IDR</t>
   </si>
 </sst>
 </file>
@@ -432,28 +423,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1234567</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
